--- a/Dokumentacija/darbaPlans.xlsx
+++ b/Dokumentacija/darbaPlans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturpetrov/Scripts/nosocial.life/Dokumentacija/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scripts\nosocial.life\Dokumentacija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571F6D6-8134-224A-A5E9-E1DDC7F719CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C897DE-2075-42FE-976D-C462C91D38A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20120" xr2:uid="{93D187EC-5161-834F-85D2-F4A224C55AEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{93D187EC-5161-834F-85D2-F4A224C55AEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Arturs</t>
   </si>
   <si>
-    <t>Projekta skeleta izstradāšana (repozitorijs, programmas mapes sistēma (/app, /templates, /static, /db, /router, /sevices utt.), datubazes izveide, env uzstadīšana), FrontEnd (login/register template, fileExplorer template)</t>
-  </si>
-  <si>
     <t>register/login sistemas izveide, sesijas parvalde, admin panel</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>21.03.2026</t>
+  </si>
+  <si>
+    <t>Projekta skeleta izstradāšana (repozitorijs, programmas mapes sistēma (/app, /templates, /static, /db, /router, /sevices utt.), datubazes izveide, env uzstadīšana), FrontEnd (login/register template, fileExplorer template, admin panel)</t>
   </si>
 </sst>
 </file>
@@ -254,19 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -287,6 +277,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -296,29 +298,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,157 +664,155 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:5" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
+    <row r="4" spans="2:5" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
+    <row r="6" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
+    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="21">
+    <row r="11" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+    </row>
+    <row r="13" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
